--- a/medicine/Enfance/Le_Petit_Prince/Le_Petit_Prince.xlsx
+++ b/medicine/Enfance/Le_Petit_Prince/Le_Petit_Prince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Petit Prince est une œuvre de langue française, la plus connue d'Antoine de Saint-Exupéry. Publié en 1943 à New York simultanément à sa traduction anglaise[1], c'est une œuvre poétique et philosophique sous l'apparence d'un conte pour enfants.
-Traduit en cinq cent trente-cinq langues et dialectes différents[2], Le Petit Prince est l'ouvrage le plus traduit au monde après la Bible[3].
+Le Petit Prince est une œuvre de langue française, la plus connue d'Antoine de Saint-Exupéry. Publié en 1943 à New York simultanément à sa traduction anglaise, c'est une œuvre poétique et philosophique sous l'apparence d'un conte pour enfants.
+Traduit en cinq cent trente-cinq langues et dialectes différents, Le Petit Prince est l'ouvrage le plus traduit au monde après la Bible.
 Le langage, simple et dépouillé, parce qu'il est destiné à être compris par des enfants, est en réalité pour le narrateur le véhicule privilégié d'une conception symbolique de la vie. Chaque chapitre relate une rencontre du petit prince qui laisse celui-ci perplexe, par rapport aux comportements absurdes des « grandes personnes ». Ces différentes rencontres peuvent être lues comme une allégorie.
-Les aquarelles font partie du texte[4] et participent à cette pureté du langage : dépouillement et profondeur sont les qualités maîtresses de l'œuvre.
+Les aquarelles font partie du texte et participent à cette pureté du langage : dépouillement et profondeur sont les qualités maîtresses de l'œuvre.
 On peut y lire une invitation de l'auteur à retrouver l'enfant en soi, car « toutes les grandes personnes ont d'abord été des enfants. (Mais peu d'entre elles s'en souviennent.) ». L'ouvrage est dédié à Léon Werth, mais « quand il était petit garçon ».
 </t>
         </is>
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Narrateur
-Le narrateur est un aviateur qui, à la suite d'une panne de moteur, a dû se poser en catastrophe dans le désert du Sahara et tente seul de réparer son avion (Antoine de Saint-Exupéry se met en scène lui-même dans son œuvre).
+          <t>Narrateur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le narrateur est un aviateur qui, à la suite d'une panne de moteur, a dû se poser en catastrophe dans le désert du Sahara et tente seul de réparer son avion (Antoine de Saint-Exupéry se met en scène lui-même dans son œuvre).
 Le lendemain de son atterrissage forcé, il est réveillé par une petite voix qui lui demande : « S'il vous plaît… dessine-moi un mouton ! »
 Très surpris par cette apparition miraculeuse et incongrue, l'aviateur obéit, mais aucun de ses moutons ne convient au petit prince. Excédé, le narrateur dessine la caisse du mouton : « Ça, c'est la caisse. Le mouton que tu veux est dedans ». Le petit prince s'en montre cette fois-ci satisfait et remarque que le mouton « s'est endormi ».
 Peu de temps après, le petit prince demande à l'aviateur si un mouton mange des fleurs, lequel répond « oui, même les fleurs qui ont des épines ». Devant le chagrin du garçonnet qui s'inquiète pour sa fleur, l'aviateur finit par promettre de dessiner une muselière pour empêcher le mouton de manger la fleur.
@@ -527,8 +544,43 @@
 Les activités du petit prince consistent essentiellement à ramoner les volcans et à arracher les baobabs pour qu'ils n'envahissent pas sa planète. Une aquarelle pleine page montre une planète rendue inutilisable par trois baobabs qu'on a trop attendu pour arracher. L'auteur indique que si ce dessin est effrayant, c'est qu'il était « animé par le sentiment de l'urgence » en le dessinant.
 Après ces activités, le petit prince va contempler un coucher de soleil ; son astéroïde est si petit qu'il lui suffit de déplacer sa chaise de quelques mètres pour cela : une fois, il a vu le Soleil se coucher quarante-quatre fois à la suite. Il n'hésite d'ailleurs pas à préciser au narrateur que « quand on est tellement triste, on aime les couchers de soleil ».
 Ayant assisté à la naissance d'une rose superbe — orgueilleuse, coquette et exigeante —, le petit prince découvre que l'amour… peut avoir des épines. Il décide alors de quitter sa planète et d'aller explorer les étoiles, en quête d'amis. Il dira au narrateur qu'il n'aurait jamais dû quitter sa planète, car « il ne faut jamais écouter les fleurs ». Il a ainsi rencontré, murés dans leur solitude, une galerie de personnages : le monarque d'un empire factice (qui ne voit en lui qu'un sujet), le vaniteux (qui le voit comme un admirateur), le buveur qui boit pour oublier qu'il boit, le businessman propriétaire d'étoiles, l'allumeur de réverbères qui obéit à une consigne sans se poser de questions (le seul dont le petit prince a su se faire un ami, étant tout de même obligé de le quitter étant donné la petite taille de sa planète sur laquelle il n'y a pas de place pour deux), et le géographe écrivant d'énormes livres, lesquels, au chagrin du petit prince, ne recensent pas les choses importantes de la vie, mais uniquement les pérennes...
-Le petit prince sur Terre
-Toujours en quête d'amis, le petit prince arrive sur Terre, et c'est encore la solitude et l'absurdité de l'existence qu'il va découvrir : sa rencontre avec le serpent qui ne parle que par énigmes (il « les résout toutes »), celle d'une fleur « à trois pétales », l'écho des montagnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le petit prince sur Terre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours en quête d'amis, le petit prince arrive sur Terre, et c'est encore la solitude et l'absurdité de l'existence qu'il va découvrir : sa rencontre avec le serpent qui ne parle que par énigmes (il « les résout toutes »), celle d'une fleur « à trois pétales », l'écho des montagnes.
 Enfin, il arrive dans un jardin de roses. Il se rend alors compte que sa fleur n'était pas unique au monde et devient bien malheureux.
 C'est alors qu'il rencontre le renard ; ce dernier lui explique ce que signifie le terme « apprivoiser » et que c'est un terme bien trop oublié par les hommes. C'est grâce à l'enseignement du renard que le petit prince découvre la profondeur de l'amitié :
 « On ne voit bien qu'avec le cœur. L'essentiel est invisible pour les yeux. »
@@ -541,44 +593,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Naissance du personnage</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« J'aurais aimé commencer cette histoire à la façon des contes de fées. » Le regret du narrateur est clair. Pourtant, lors de sa parution, Le Petit Prince n'a pas reçu l'accueil de Terre des hommes ni de Pilote de guerre, considéré par le rédacteur en chef du journal américain The Atlantic comme « la plus grande réponse que les démocraties aient trouvée à Mein Kampf »[source insuffisante]. Pourtant, malgré sa chevelure dorée, son écharpe aérienne et son rire délicieux d'enfant, le Petit Prince est foncièrement grave. Il a vu le jour en temps de guerre et un dessin terrifiant d'une planète envahie par trois baobabs (bien enracinés dans la terre) que l'on n'a pas su couper à temps, dessiné « avec le sentiment de l'urgence » écrit l'auteur, peut faire penser aux trois puissances de l'Axe.
-En 1939, paraît Terre des hommes. Dans le train qui le conduit à Moscou, Saint-Exupéry rencontre un couple d'ouvriers : « Entre l'homme et la femme, l'enfant, tant bien que mal, avait fait son creux et il dormait. Mais il se retourna dans le sommeil, et son visage m'apparut sous la veilleuse. Ah ! quel adorable visage ! Il était né de ce couple-là une sorte de fruit doré. Il était né de ces lourdes hardes cette réussite de charme et de grâce. Je me penchai sur ce front lisse, sur cette douce moue des lèvres, et je me dis : voici un visage de musicien, voici Mozart enfant, voici une belle promesse de la vie. Les petits princes des légendes n'étaient point différents de lui. »[5] Le personnage était déjà nommé.
-Le 29 décembre de la même année, Saint-Exupéry tente d'assurer la liaison de Paris-Saïgon mais son avion s'écrase le 31 décembre dans le désert de Libye. C'est une caravane de nomades qui le sauvera : la rencontre « miraculeuse » et comme « tombée du ciel » vient de naître.
-Michel Quesnel précise que « lorsqu'il fréquente les petits restaurants, Saint-Exupéry alimente sa patience en griffonnant, sur le papier gaufré qui lui tient lieu de nappe, l'esquisse d'un jeune personnage auquel il suffira qu'on l'ampute d'ailes inutiles et qu'on laisse rayonner ses cheveux pour qu'il devienne le Petit Prince »[6].
-Petit à petit, les courriers personnels de l'auteur font apparaître la silhouette très nette que nous connaissons du personnage. En mai 1940, dans une lettre qu'il envoie à Léon Werth, à qui est dédié le livre, apparaît sur son nuage un petit personnage au regard courroucé, en face d'une planète habitée par un vieux mouton cornu, plantée d'arbres et ornée en premier plan par une rose.
-Le personnage du petit prince aurait aussi été inspiré à Saint-Exupéry par la personnalité de Pierre Sudreau[7]. Une autre histoire, tenace au Québec, affirme que le Petit Prince serait inspiré de Thomas De Koninck, fils de son ami Charles De Koninck chez qui il a séjourné à Québec en 1942[8]. Saint-Exupéry fait poser Denis de Rougemont pour dessiner les croquis du Petit prince[9],[10]. Devenus amis, Rougemont et Saint-Exupéry s'installent ensemble à New York, dans des appartements voisins, pour que Rougemont puisse continuer à relire les brouillons du Petit Prince[11].
-Pour créer le personnage du Petit Prince, l'auteur s'est sans doute également inspiré de son filleul et neveu François d'Agay, fils de sa sœur cadette Gabrielle[réf. nécessaire].
-Dans son ouvrage historique consacré à l'opération Condor, l'écrivain français Pablo Daniel Magee écrit que la fameuse figure du boa ayant avalé un éléphant, visible dans les premières pages du Petit Prince, serait inspirée par la forme du Cerro Patiño, une colline située sur la rive opposée à l'Hôtel del Lago, au bord du lac Ypacaraí, au Paraguay. En effet, au cours de son service dans l'aéropostale, Saint-Exupéry y passait beaucoup de temps en compagnie de son amie Hilda Ingenohl[12].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -600,75 +614,260 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Naissance du personnage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« J'aurais aimé commencer cette histoire à la façon des contes de fées. » Le regret du narrateur est clair. Pourtant, lors de sa parution, Le Petit Prince n'a pas reçu l'accueil de Terre des hommes ni de Pilote de guerre, considéré par le rédacteur en chef du journal américain The Atlantic comme « la plus grande réponse que les démocraties aient trouvée à Mein Kampf »[source insuffisante]. Pourtant, malgré sa chevelure dorée, son écharpe aérienne et son rire délicieux d'enfant, le Petit Prince est foncièrement grave. Il a vu le jour en temps de guerre et un dessin terrifiant d'une planète envahie par trois baobabs (bien enracinés dans la terre) que l'on n'a pas su couper à temps, dessiné « avec le sentiment de l'urgence » écrit l'auteur, peut faire penser aux trois puissances de l'Axe.
+En 1939, paraît Terre des hommes. Dans le train qui le conduit à Moscou, Saint-Exupéry rencontre un couple d'ouvriers : « Entre l'homme et la femme, l'enfant, tant bien que mal, avait fait son creux et il dormait. Mais il se retourna dans le sommeil, et son visage m'apparut sous la veilleuse. Ah ! quel adorable visage ! Il était né de ce couple-là une sorte de fruit doré. Il était né de ces lourdes hardes cette réussite de charme et de grâce. Je me penchai sur ce front lisse, sur cette douce moue des lèvres, et je me dis : voici un visage de musicien, voici Mozart enfant, voici une belle promesse de la vie. Les petits princes des légendes n'étaient point différents de lui. » Le personnage était déjà nommé.
+Le 29 décembre de la même année, Saint-Exupéry tente d'assurer la liaison de Paris-Saïgon mais son avion s'écrase le 31 décembre dans le désert de Libye. C'est une caravane de nomades qui le sauvera : la rencontre « miraculeuse » et comme « tombée du ciel » vient de naître.
+Michel Quesnel précise que « lorsqu'il fréquente les petits restaurants, Saint-Exupéry alimente sa patience en griffonnant, sur le papier gaufré qui lui tient lieu de nappe, l'esquisse d'un jeune personnage auquel il suffira qu'on l'ampute d'ailes inutiles et qu'on laisse rayonner ses cheveux pour qu'il devienne le Petit Prince ».
+Petit à petit, les courriers personnels de l'auteur font apparaître la silhouette très nette que nous connaissons du personnage. En mai 1940, dans une lettre qu'il envoie à Léon Werth, à qui est dédié le livre, apparaît sur son nuage un petit personnage au regard courroucé, en face d'une planète habitée par un vieux mouton cornu, plantée d'arbres et ornée en premier plan par une rose.
+Le personnage du petit prince aurait aussi été inspiré à Saint-Exupéry par la personnalité de Pierre Sudreau. Une autre histoire, tenace au Québec, affirme que le Petit Prince serait inspiré de Thomas De Koninck, fils de son ami Charles De Koninck chez qui il a séjourné à Québec en 1942. Saint-Exupéry fait poser Denis de Rougemont pour dessiner les croquis du Petit prince,. Devenus amis, Rougemont et Saint-Exupéry s'installent ensemble à New York, dans des appartements voisins, pour que Rougemont puisse continuer à relire les brouillons du Petit Prince.
+Pour créer le personnage du Petit Prince, l'auteur s'est sans doute également inspiré de son filleul et neveu François d'Agay, fils de sa sœur cadette Gabrielle[réf. nécessaire].
+Dans son ouvrage historique consacré à l'opération Condor, l'écrivain français Pablo Daniel Magee écrit que la fameuse figure du boa ayant avalé un éléphant, visible dans les premières pages du Petit Prince, serait inspirée par la forme du Cerro Patiño, une colline située sur la rive opposée à l'Hôtel del Lago, au bord du lac Ypacaraí, au Paraguay. En effet, au cours de son service dans l'aéropostale, Saint-Exupéry y passait beaucoup de temps en compagnie de son amie Hilda Ingenohl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Phénomène d'édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Petit Prince fait son apparition dans les librairies aux États-Unis en 1943. Mais Saint-Exupéry y pense depuis plus de sept ans déjà. À moins que l'on ne puisse lire l'ouvrage comme une « autobiographie discrète »[13], la mort de son frère François, qu'il nommait « le roi soleil », en juillet 1917 marquant peut-être le passage d'Antoine du stade d'adolescent à celui d'adulte[14]. Prévu comme un conte de Noël devant sortir pour les fêtes de Noël en 1942 selon Eugene Reynal, son éditeur américain qui avait suggéré à Saint-Exupéry de mettre en texte l’histoire du petit bonhomme qu’il n’arrêtait pas de dessiner partout, Le Petit Prince sort finalement en anglais et en français le 6 avril 1943 aux éditions Reynal &amp; Hitchcock[15],[16] puis en France aux éditions Gallimard en avril 1946, la sortie prévue fin 1945 ayant été retardée[17]. Ce titre reste, en 2020, le plus grand succès de cet éditeur[18].
-L'ouvrage, vendu à plus de cent quarante-cinq millions d'exemplaires dans le monde et douze millions d'exemplaires en France[14], est traduit en 535 langues et dialectes, ce qui en fait l'ouvrage de littérature le plus vendu au monde et le plus traduit après la Bible[19] : les langues les plus connues des cinq continents, mais aussi dans des langues moins répandues comme le corse, le breton, le papiamento à Curaçao, le féroïen aux îles Féroé, le frioulan en Italie, l'aragonais en Espagne, le romanche en Suisse, l'irlandais en Irlande, le quichua en Équateur, le guarani au Paraguay, ainsi qu'en espéranto[20] et dans les nombreuses langues de l'Inde : le bengali, le hindi, le télougou, le marathi, le pendjabi, le tamoul, le malayalam[21]. En 2005, Le Petit Prince fut traduit en toba, une langue amérindienne du nord de l'Argentine, sous le titre So Shiyaxauolec Nta'a. C'est le premier livre à avoir été traduit dans cette langue après le Nouveau Testament. Egalement disponible en braille dans plusieurs langues, les aquarelles de l'auteur ont aussi été adaptées aux mal et non-voyants en 2014 par les éditions Claude Garrandes[22]. Le livre a été traduit en latin par Auguste Haury avec pour titre Regulus (Éditions Hazan, 1961).
-Phénomène d’édition, phénomène culturel, Le Petit Prince est international. Plus de cent-trente millions de livres, cassettes, DVD, CD audio vendus dans le monde, un musée au Japon, un opéra aux États-Unis et en Allemagne, une comédie musicale en France et en Corée, une intégration dans les programmes scolaires au Maroc, au Canada, au Liban, au Japon, en Corée, plus de quatre cents produits dérivés sous licence[14], etc.
-Le livre fut initialement publié à New York, et l'édition française fut ensuite tirée par retramage des gravures de cette édition, dont les originaux n'étaient plus disponibles. Un nouveau tirage en collection Folio au début du XXIe siècle restitua tardivement dans une édition française les illustrations à partir des originaux. Indépendamment de la meilleure qualité technique, on s'aperçut que plusieurs dessins des éditions françaises antérieures avaient été remaniés d'autorité par l'éditeur pour des raisons de mise en page (étoile visée par l'Astronome, par exemple)[23].
-Le manuscrit autographe original — non signé[24] — est conservé au département des manuscrits littéraires et historiques de la Morgan Library and Museum à New York, sous la cote MA 2592[25],[26].
-Après sa parution en 2017 en dialecte hassanya, la langue utilisée à Tarfaya, ville du Maroc où a séjourné l'auteur, Le Petit Prince devient le livre non religieux le plus traduit au monde avec au moins une édition disponible en plus de trois cents langues[27], incluant plusieurs langues anciennes.
-Le Petit Prince et le domaine public
-Depuis le 1er janvier 2015, le livre est dans le domaine public dans tous les pays du monde sauf quatre : la France, les États-Unis[28], l'Espagne et l'Italie[29]. Le Petit Prince, comme le reste de l’œuvre de Saint-Exupéry, reste en France protégé par le droit d'auteur jusqu'en 2032. Cette exception tient à l'extension de la durée des droits concernant les auteurs morts pour la France (comme c'était le cas pour Guillaume Apollinaire qui, mort en 1918, entre dans le domaine public en 2015) avec en plus une prorogation de guerre, comme toutes les œuvres publiées avant 1948[30]. Dans les autres pays, où la durée de 70 ans après la mort de l'auteur est en vigueur sans exception, l'œuvre de Saint-Exupéry est bien dans le domaine public depuis le 1er janvier 2015. Au Canada et au Japon, où la durée des droits n'est valable que cinquante ans après la mort de l'auteur, Le Petit Prince était entré dans le domaine public dès 1995.
-Par ailleurs, comme c'est déjà le cas pour les personnages de Tintin et de Zorro, les héritiers de Saint-Exupéry ont déposé le personnage du roman comme marque de commerce[31], en juin 2018[32], jusqu'en juin 2028.
-Lecteurs et influence
-Le Petit Prince a suscité de nombreuses interprétations philosophiques et spirituelles, voire romanesques. Parmi les lecteurs influencés par le livre de Saint-Exupéry, le prêtre Stan Rougier entame son chemin de foi après avoir lu Le Petit Prince à l'âge de dix-sept ans, et qui consacre un ouvrage à ce sujet : Que peut-on dire aux hommes ?, Saint-Exupéry en approche de Dieu (2017)[33]. Le roman est également l'une des lectures favorites du bienheureux Carlo Acutis qui l'emploie fréquemment pour illustrer la vertu théologale de charité auprès de son entourage[34]. Sur le plan littéraire, Le Petit Prince influence l'écrivain Michel Bussi qui dédie un roman entier à l’œuvre de Saint-Exupéry : Code 612 : Qui a tué le Petit Prince ? (2021)[35].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Petit Prince fait son apparition dans les librairies aux États-Unis en 1943. Mais Saint-Exupéry y pense depuis plus de sept ans déjà. À moins que l'on ne puisse lire l'ouvrage comme une « autobiographie discrète », la mort de son frère François, qu'il nommait « le roi soleil », en juillet 1917 marquant peut-être le passage d'Antoine du stade d'adolescent à celui d'adulte. Prévu comme un conte de Noël devant sortir pour les fêtes de Noël en 1942 selon Eugene Reynal, son éditeur américain qui avait suggéré à Saint-Exupéry de mettre en texte l’histoire du petit bonhomme qu’il n’arrêtait pas de dessiner partout, Le Petit Prince sort finalement en anglais et en français le 6 avril 1943 aux éditions Reynal &amp; Hitchcock, puis en France aux éditions Gallimard en avril 1946, la sortie prévue fin 1945 ayant été retardée. Ce titre reste, en 2020, le plus grand succès de cet éditeur.
+L'ouvrage, vendu à plus de cent quarante-cinq millions d'exemplaires dans le monde et douze millions d'exemplaires en France, est traduit en 535 langues et dialectes, ce qui en fait l'ouvrage de littérature le plus vendu au monde et le plus traduit après la Bible : les langues les plus connues des cinq continents, mais aussi dans des langues moins répandues comme le corse, le breton, le papiamento à Curaçao, le féroïen aux îles Féroé, le frioulan en Italie, l'aragonais en Espagne, le romanche en Suisse, l'irlandais en Irlande, le quichua en Équateur, le guarani au Paraguay, ainsi qu'en espéranto et dans les nombreuses langues de l'Inde : le bengali, le hindi, le télougou, le marathi, le pendjabi, le tamoul, le malayalam. En 2005, Le Petit Prince fut traduit en toba, une langue amérindienne du nord de l'Argentine, sous le titre So Shiyaxauolec Nta'a. C'est le premier livre à avoir été traduit dans cette langue après le Nouveau Testament. Egalement disponible en braille dans plusieurs langues, les aquarelles de l'auteur ont aussi été adaptées aux mal et non-voyants en 2014 par les éditions Claude Garrandes. Le livre a été traduit en latin par Auguste Haury avec pour titre Regulus (Éditions Hazan, 1961).
+Phénomène d’édition, phénomène culturel, Le Petit Prince est international. Plus de cent-trente millions de livres, cassettes, DVD, CD audio vendus dans le monde, un musée au Japon, un opéra aux États-Unis et en Allemagne, une comédie musicale en France et en Corée, une intégration dans les programmes scolaires au Maroc, au Canada, au Liban, au Japon, en Corée, plus de quatre cents produits dérivés sous licence, etc.
+Le livre fut initialement publié à New York, et l'édition française fut ensuite tirée par retramage des gravures de cette édition, dont les originaux n'étaient plus disponibles. Un nouveau tirage en collection Folio au début du XXIe siècle restitua tardivement dans une édition française les illustrations à partir des originaux. Indépendamment de la meilleure qualité technique, on s'aperçut que plusieurs dessins des éditions françaises antérieures avaient été remaniés d'autorité par l'éditeur pour des raisons de mise en page (étoile visée par l'Astronome, par exemple).
+Le manuscrit autographe original — non signé — est conservé au département des manuscrits littéraires et historiques de la Morgan Library and Museum à New York, sous la cote MA 2592,.
+Après sa parution en 2017 en dialecte hassanya, la langue utilisée à Tarfaya, ville du Maroc où a séjourné l'auteur, Le Petit Prince devient le livre non religieux le plus traduit au monde avec au moins une édition disponible en plus de trois cents langues, incluant plusieurs langues anciennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phénomène d'édition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Petit Prince et le domaine public</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 1er janvier 2015, le livre est dans le domaine public dans tous les pays du monde sauf quatre : la France, les États-Unis, l'Espagne et l'Italie. Le Petit Prince, comme le reste de l’œuvre de Saint-Exupéry, reste en France protégé par le droit d'auteur jusqu'en 2032. Cette exception tient à l'extension de la durée des droits concernant les auteurs morts pour la France (comme c'était le cas pour Guillaume Apollinaire qui, mort en 1918, entre dans le domaine public en 2015) avec en plus une prorogation de guerre, comme toutes les œuvres publiées avant 1948. Dans les autres pays, où la durée de 70 ans après la mort de l'auteur est en vigueur sans exception, l'œuvre de Saint-Exupéry est bien dans le domaine public depuis le 1er janvier 2015. Au Canada et au Japon, où la durée des droits n'est valable que cinquante ans après la mort de l'auteur, Le Petit Prince était entré dans le domaine public dès 1995.
+Par ailleurs, comme c'est déjà le cas pour les personnages de Tintin et de Zorro, les héritiers de Saint-Exupéry ont déposé le personnage du roman comme marque de commerce, en juin 2018, jusqu'en juin 2028.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phénomène d'édition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lecteurs et influence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Petit Prince a suscité de nombreuses interprétations philosophiques et spirituelles, voire romanesques. Parmi les lecteurs influencés par le livre de Saint-Exupéry, le prêtre Stan Rougier entame son chemin de foi après avoir lu Le Petit Prince à l'âge de dix-sept ans, et qui consacre un ouvrage à ce sujet : Que peut-on dire aux hommes ?, Saint-Exupéry en approche de Dieu (2017). Le roman est également l'une des lectures favorites du bienheureux Carlo Acutis qui l'emploie fréquemment pour illustrer la vertu théologale de charité auprès de son entourage. Sur le plan littéraire, Le Petit Prince influence l'écrivain Michel Bussi qui dédie un roman entier à l’œuvre de Saint-Exupéry : Code 612 : Qui a tué le Petit Prince ? (2021).
 Il existe également de nombreux ouvrages philosophiques reprenant la moralité du Petit Prince :
-La Philosophie du Petit Prince ou le retour à l'essentiel (2003)[36] de Paul Meunier
-Philosophie du Petit Prince, sagesse, identité et bonheur (2021)[37] de Gwendal Fossois
-Le Petit Prince, un voyage philosophique entre ciel et terre (2019-2022)[38],[39] d'Olivier Larrègle en deux tomes :
+La Philosophie du Petit Prince ou le retour à l'essentiel (2003) de Paul Meunier
+Philosophie du Petit Prince, sagesse, identité et bonheur (2021) de Gwendal Fossois
+Le Petit Prince, un voyage philosophique entre ciel et terre (2019-2022), d'Olivier Larrègle en deux tomes :
 La Préparation au voyage
 La Traversée et le Retour
 La philosophe Laurence Vanin consacre également deux livres à ce sujet :
-L'Énigme de la rose (2013)[40]
-Le Secret du Petit Prince, la philosophie du mouton (2016)[41].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+L'Énigme de la rose (2013)
+Le Secret du Petit Prince, la philosophie du mouton (2016).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adaptations phonographiques
-1954 : adaptation phonographique, avec Gérard Philipe dans le rôle du récitant, Georges Poujouly dans le rôle du petit prince, Pierre Larquey dans le rôle de l'allumeur de réverbères, Michel Roux dans le rôle du serpent, Jacques Grello dans le rôle du renard, et Sylvie Pelayo dans le rôle de la rose (Disques Festival LP FLD 22 M)[42].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adaptations phonographiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1954 : adaptation phonographique, avec Gérard Philipe dans le rôle du récitant, Georges Poujouly dans le rôle du petit prince, Pierre Larquey dans le rôle de l'allumeur de réverbères, Michel Roux dans le rôle du serpent, Jacques Grello dans le rôle du renard, et Sylvie Pelayo dans le rôle de la rose (Disques Festival LP FLD 22 M).
 1959 : adaptation phonographique en allemand, avec Will Quadflieg dans le rôle du récitant.
-1972 : adaptation phonographique, avec Jean-Louis Trintignant dans le rôle du récitant et Éric Damain dans le rôle du Petit Prince (Philips LP 6311 061)[43].
-1973 : adaptation phonographique, avec Marcel Mouloudji dans le rôle du récitant et Éric Rémy dans le rôle du Petit Prince[44].
+1972 : adaptation phonographique, avec Jean-Louis Trintignant dans le rôle du récitant et Éric Damain dans le rôle du Petit Prince (Philips LP 6311 061).
+1973 : adaptation phonographique, avec Marcel Mouloudji dans le rôle du récitant et Éric Rémy dans le rôle du Petit Prince.
 Dans la version de 1973 éditée sur disques Déesse (la plus rare de toutes), on retrouve Jean Carmet, Romain Bouteille, Claude Piéplu, Bernard Dimey, et Raoul de Godewarsvelde, le papa d'Arnaud Delbarre, l'actuel directeur de l'Olympia.
 1977 : adaptation phonographique, avec Guy Gravis dans le rôle du récitant et Jean-Claude Millot dans le rôle du Petit Prince. Dans cette version éditée sur disques AB Productions, on retrouve Roger Hanin, Jean Topart, Marina Vlady, Jean Le Poulain, Claude Dauphin, Jean Marais et Jean-Claude Pascal.
 1978 : adaptation phonographique, avec Jean-Claude Pascal dans le rôle du récitant.
 1990 : adaptation phonographique, avec Pierre Arditi dans le rôle du récitant et Benjamin Pascal dans le rôle du Petit Prince.
 1996 : « intégrale » numérique québécoise (Radio-Canada, 101 minutes) sur une trame musicale de Robert Normandeau. Le comédien Michel Dumont (narrateur/aviateur) est entouré d'une panoplie de personnages, dont le jeune Martin Pensa qui incarne le rôle-titre.
-2019 : livre-CD musical Dessine-moi un mouton ! en 23 chansons de Jean-Noël Sarrail aux éditions Lugdivine.
-Adaptation radiophonique
-1954 : adaptation radiophonique, avec Pierre Fresnay dans le rôle du récitant.
-Opéras, comédies musicales et chansons
-1964 : opéra Le Petit Prince du compositeur soviétique Lev Knipper.
+2019 : livre-CD musical Dessine-moi un mouton ! en 23 chansons de Jean-Noël Sarrail aux éditions Lugdivine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptation radiophonique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1954 : adaptation radiophonique, avec Pierre Fresnay dans le rôle du récitant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Opéras, comédies musicales et chansons</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1964 : opéra Le Petit Prince du compositeur soviétique Lev Knipper.
 1966 : chanson Le Petit Prince est revenu de Louis Amade et Gilbert Bécaud.
 1972 : chanson Le Petit Prince de Gérard Lenorman.
 1975 : comédie musicale Un enfant dans les sables de Les Octaves.
@@ -679,109 +878,423 @@
 2003 : opéra Der Kleine Prinz de Nikolaus Schapfl.
 2004 : spectacle musical The little Prince de Francesca Zambello avec Joseph McManners.
 2008 : suite de concert de Jean-Pascal Beintus pour violon solo, harpe solo et orchestre de chambre.
-2011 : spectacle théâtral tout public Sur la terre du Petit Prince d'Arnaud Devolontat[45].
+2011 : spectacle théâtral tout public Sur la terre du Petit Prince d'Arnaud Devolontat.
 2014 : opéra Le Petit Prince de Michaël Levinas.
-2019 : spectacle musical pédagogique en 23 chansons Dessine-moi un mouton ! de Jean-Noël Sarrail.
-Bandes dessinées
-2008 : adaptation en bande dessinée de Joann Sfar[46].
-2011 : Le Petit Prince, série de bandes dessinées adaptée par Isa Python et Pierre Alary[47].
-2014 : adaptation en livre illustré de Cheyenne Schiavone.
-Films
-1966 : Le Petit Prince (Маленький принц ou Malenkiy prints) d'Arūnas Žebriūnas (URSS).
+2019 : spectacle musical pédagogique en 23 chansons Dessine-moi un mouton ! de Jean-Noël Sarrail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2008 : adaptation en bande dessinée de Joann Sfar.
+2011 : Le Petit Prince, série de bandes dessinées adaptée par Isa Python et Pierre Alary.
+2014 : adaptation en livre illustré de Cheyenne Schiavone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1966 : Le Petit Prince (Маленький принц ou Malenkiy prints) d'Arūnas Žebriūnas (URSS).
 1974 : The Little Prince de Stanley Donen (États-Unis).
 1979 : The Little Prince, court-métrage d'animation en pâte à modeler réalisé par Will Vinton et écrit par Susan Shadburne (États-Unis).
 1990 : Der kleine Prinz de Theo Kerp (Allemagne).
 1990 : Le Petit Prince de Jean-Louis Guillermou avec Guy Gravis, Daniel Royan et Alexandre Warner (France).
 1994 : pour l’anniversaire des cinquante ans de la disparition d’Antoine de Saint-Exupéry, La Géode a présenté, sur son écran hémisphérique de 1 000 m2, Le Petit Prince à La Géode, une évocation de l’œuvre de Saint-Exupéry. Un spectacle multimédia mêlant projections d’images d’archives, de synthèse et de diapositives avec des effets spéciaux. Durée 5 min. Films 35 mm et 70 mm, 55 projecteurs de diapositives. Musiques de Giuseppe Verdi et Claude Debussy. Réalisation de Gianni Corvi et Pierre Goismier.
 2011 : Le Petit Prince 4D, film 4D d'animation réalisé par nWave Pictures (attraction en 3D avec effets sensoriels au Parc du Futuroscope) (France)
-2015 : Le Petit Prince, film 3D et d'animation en volume de Mark Osborne (France).
-Séries d'animation
-1978 : Hoshi no Ōjisama : Puchi Puransu (星の王子さま プチ・プランス?), série d’animation japonaise de 39 épisodes.
+2015 : Le Petit Prince, film 3D et d'animation en volume de Mark Osborne (France).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Séries d'animation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1978 : Hoshi no Ōjisama : Puchi Puransu (星の王子さま プチ・プランス?), série d’animation japonaise de 39 épisodes.
 Années 1990 : dans la série animée Futurama.
 2010 : Le Petit Prince, série d'animation française de 78 épisodes de 26 minutes, par Method Animation.
-2014 : Der Kleine Prinz, série d'animation allemande sur KiKa.
-Monnaie
-Certains éléments du conte ont figuré sur le billet de 50 francs Saint-Exupéry, notamment le Petit Prince debout sur sa planète dont on aperçoit deux volcans et deux fleurs, des étoiles et, au recto, le « boa ouvert ». Sur les premières éditions de ce billet, il était orthographié « Saint-Éxupéry ».
+2014 : Der Kleine Prinz, série d'animation allemande sur KiKa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Monnaie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains éléments du conte ont figuré sur le billet de 50 francs Saint-Exupéry, notamment le Petit Prince debout sur sa planète dont on aperçoit deux volcans et deux fleurs, des étoiles et, au recto, le « boa ouvert ». Sur les premières éditions de ce billet, il était orthographié « Saint-Éxupéry ».
 	Billet de 50 francs émis à l’effigie du Petit Prince et d’Antoine de Saint-Exupéry
 			Le Petit Prince sur un billet de 50 francs, recto.
 			Le Petit Prince sur un billet de 50 francs, verso.
 			Détail de la première édition du billet avec une faute d’orthographe à Éxupéry.
-Mises en scène notables
-1981-2001 : compagnie Guy Gravis, théâtre national d'art et d'essai Le Lucernaire, Paris. Guy Gravis crée le rôle de Saint-Exupéry dans Le Petit Prince, spectacle qu'il produit et qui tient l'affiche pendant vingt-deux ans à Paris, au Lucernaire. Le spectacle a été joué dans cinquante-quatre pays sur les cinq continents. Soixante-dix enfants se sont succédé dans le rôle-titre. Grâce au principe d'une triple distribution, il a fait l'objet de nombreuses tournées mondiales. Il a rencontré le succès à Paris et à l’étranger (Canada, en Australie, à l'île Maurice et en Amérique du Sud). Il se voit attribuer en 1991 le PIAF du meilleur spectacle.
-1985 : spectacle de Bernard Jenny, théâtre La Choucrouterie à Strasbourg.
-Suite allographe
-En 2022, l'écrivain Donato Sperduto a écrit le roman Il sorriso del Piccolo Principe (Ed. Wip) : finalement, le Petit Prince peut sourire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mises en scène notables</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1981-2001 : compagnie Guy Gravis, théâtre national d'art et d'essai Le Lucernaire, Paris. Guy Gravis crée le rôle de Saint-Exupéry dans Le Petit Prince, spectacle qu'il produit et qui tient l'affiche pendant vingt-deux ans à Paris, au Lucernaire. Le spectacle a été joué dans cinquante-quatre pays sur les cinq continents. Soixante-dix enfants se sont succédé dans le rôle-titre. Grâce au principe d'une triple distribution, il a fait l'objet de nombreuses tournées mondiales. Il a rencontré le succès à Paris et à l’étranger (Canada, en Australie, à l'île Maurice et en Amérique du Sud). Il se voit attribuer en 1991 le PIAF du meilleur spectacle.
+1985 : spectacle de Bernard Jenny, théâtre La Choucrouterie à Strasbourg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Suite allographe</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, l'écrivain Donato Sperduto a écrit le roman Il sorriso del Piccolo Principe (Ed. Wip) : finalement, le Petit Prince peut sourire.
 L'homme d'affaires et poète argentin Alejandro Roemmers a aussi écrit une suite au Petit Prince. Intitulée Le retour du Jeune Prince, ce roman narre le voyage du Petit Prince, devenu adolescent, en pleine steppe patagonienne.
-Parcs à thème
-Depuis juillet 2011, le Futuroscope comporte une attraction sur le thème du Petit Prince.
-Un parc à thème entier, inspiré de l'œuvre, ouvre ses portes le 1er juillet 2014 en France, en Alsace, à Ungersheim[48]. Les attractions et spectacles de cet espace, dont les ballons captifs ou le biplan sont les emblèmes, abordent le monde animal et végétal, l'astronomie et l'aviation avec sérieux ou féerie.
-Jeux de société
-Bruno Cathala et Antoine Bauza ont créé deux jeux de société sur le thème du Petit Prince, conduisant les joueurs à fabriquer une planète[49].
-Jeux vidéo
-Dans MapleStory, le petit prince est perdu dans le désert de Nihal (Nihal Desert). Le joueur incarne un personnage pour l'aider à chercher quelque chose[50].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Parcs à thème</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis juillet 2011, le Futuroscope comporte une attraction sur le thème du Petit Prince.
+Un parc à thème entier, inspiré de l'œuvre, ouvre ses portes le 1er juillet 2014 en France, en Alsace, à Ungersheim. Les attractions et spectacles de cet espace, dont les ballons captifs ou le biplan sont les emblèmes, abordent le monde animal et végétal, l'astronomie et l'aviation avec sérieux ou féerie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Jeux de société</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Cathala et Antoine Bauza ont créé deux jeux de société sur le thème du Petit Prince, conduisant les joueurs à fabriquer une planète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans MapleStory, le petit prince est perdu dans le désert de Nihal (Nihal Desert). Le joueur incarne un personnage pour l'aider à chercher quelque chose.
 Dans Sky: Les Enfants de La Lumière, le Petit Prince peut être trouvé dans le Désert Etoilé (Starlight Desert). Le joueur incarne un personnage pour l'aider à voyager à travers le monde de Sky.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Exupéry a dédié Le Petit Prince à l'un de ses meilleurs amis, Léon Werth, écrivain et critique d'art. Ou plutôt, précise-t-il, à l'enfant qu'a été Léon Werth. Mais il a regretté par la suite de ne pas l'avoir dédicacé à son épouse[réf. nécessaire] Consuelo de Saint-Exupéry, qui est l'âme du livre, représentée par la rose, orgueilleuse et fragile à la fois.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Prince</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De février à juin 2022, la première grande exposition consacrée à l'œuvre, « À la rencontre du Petit Prince », est organisée au musée des Arts décoratifs de Paris[51]. D’octobre 2022 à février 2023, une exposition « The Little Prince: Taking Flight » est organisée au Morgan Library and Museum à New York [52].
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De février à juin 2022, la première grande exposition consacrée à l'œuvre, « À la rencontre du Petit Prince », est organisée au musée des Arts décoratifs de Paris. D’octobre 2022 à février 2023, une exposition « The Little Prince: Taking Flight » est organisée au Morgan Library and Museum à New York .
 </t>
         </is>
       </c>
